--- a/Vektis_gemeenten.xlsx
+++ b/Vektis_gemeenten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rweerdenburg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BA4D1D-E072-48CF-BD93-497164F21810}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1067F2-86C0-44BD-9AD3-E668EEC7AD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Vektis_gemeenten" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Vektis_gemeenten!$A$1:$E$356</definedName>
     <definedName name="Gemeenten_alfabetisch_2020">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1092">
   <si>
     <t>Gemeente</t>
   </si>
@@ -3298,6 +3299,18 @@
   </si>
   <si>
     <t>Bergen (L.)</t>
+  </si>
+  <si>
+    <t>Nuenen, Gerwen en Nederwetten</t>
+  </si>
+  <si>
+    <t>GM0820</t>
+  </si>
+  <si>
+    <t>Noardeast-Fryslân</t>
+  </si>
+  <si>
+    <t>GM1970</t>
   </si>
 </sst>
 </file>
@@ -3656,7 +3669,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -7185,17 +7198,17 @@
       <c r="A208" t="s">
         <v>207</v>
       </c>
-      <c r="B208" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C208" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D208" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E208" t="e">
-        <v>#N/A</v>
+      <c r="B208" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D208" t="s">
+        <v>375</v>
+      </c>
+      <c r="E208" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -7270,17 +7283,17 @@
       <c r="A213" t="s">
         <v>212</v>
       </c>
-      <c r="B213" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C213" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D213" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E213" t="e">
-        <v>#N/A</v>
+      <c r="B213" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D213" t="s">
+        <v>397</v>
+      </c>
+      <c r="E213" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -9715,6 +9728,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E356" xr:uid="{00B7B03C-C325-4E49-88A7-07AE50E925C0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>